--- a/tables/treatmentDemand/currentTrends/ageOfTreatment.xlsx
+++ b/tables/treatmentDemand/currentTrends/ageOfTreatment.xlsx
@@ -69,9 +69,6 @@
     <t xml:space="preserve"> &gt; 64</t>
   </si>
   <si>
-    <t>Not known / missing</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Not known</t>
   </si>
 </sst>
 </file>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="P1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="R1" s="18" t="s">
         <v>0</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>2017</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>2017</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>2017</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>2017</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>2017</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>2017</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>2017</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>2016</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>2017</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>2016</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>2017</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>2017</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>2017</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>2017</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>2017</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>2017</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>2017</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>2017</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>2015</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>2017</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>2017</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>2017</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>2017</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>2017</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27">
         <v>2017</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28">
         <v>2016</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <v>2017</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31">
         <v>2017</v>
